--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,13 +94,10 @@
     <t>Notch3</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.04063262532702</v>
+        <v>0.0572405</v>
       </c>
       <c r="H2">
-        <v>1.04063262532702</v>
+        <v>0.114481</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01596612258633864</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01545336076613875</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.97368501288477</v>
+        <v>4.533117</v>
       </c>
       <c r="N2">
-        <v>3.97368501288477</v>
+        <v>9.066234</v>
       </c>
       <c r="O2">
-        <v>0.03734494411532919</v>
+        <v>0.0394235894695292</v>
       </c>
       <c r="P2">
-        <v>0.03734494411532919</v>
+        <v>0.03654333378744622</v>
       </c>
       <c r="Q2">
-        <v>4.135146267180911</v>
+        <v>0.2594778836385</v>
       </c>
       <c r="R2">
-        <v>4.135146267180911</v>
+        <v>1.037911534554</v>
       </c>
       <c r="S2">
-        <v>0.03734494411532919</v>
+        <v>0.0006294418622639924</v>
       </c>
       <c r="T2">
-        <v>0.03734494411532919</v>
+        <v>0.0005647173206148342</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.04063262532702</v>
+        <v>0.0572405</v>
       </c>
       <c r="H3">
-        <v>1.04063262532702</v>
+        <v>0.114481</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01596612258633864</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01545336076613875</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.56895760325</v>
+        <v>2.719193666666667</v>
       </c>
       <c r="N3">
-        <v>2.56895760325</v>
+        <v>8.157581</v>
       </c>
       <c r="O3">
-        <v>0.02414322670693357</v>
+        <v>0.02364827000997559</v>
       </c>
       <c r="P3">
-        <v>0.02414322670693357</v>
+        <v>0.03288081968556397</v>
       </c>
       <c r="Q3">
-        <v>2.673341095023856</v>
+        <v>0.1556480050768334</v>
       </c>
       <c r="R3">
-        <v>2.673341095023856</v>
+        <v>0.933888030461</v>
       </c>
       <c r="S3">
-        <v>0.02414322670693357</v>
+        <v>0.000377571177934106</v>
       </c>
       <c r="T3">
-        <v>0.02414322670693357</v>
+        <v>0.0005081191688873771</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.04063262532702</v>
+        <v>0.0572405</v>
       </c>
       <c r="H4">
-        <v>1.04063262532702</v>
+        <v>0.114481</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.01596612258633864</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01545336076613875</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>7.91981537628716</v>
+        <v>0.063204</v>
       </c>
       <c r="N4">
-        <v>7.91981537628716</v>
+        <v>0.189612</v>
       </c>
       <c r="O4">
-        <v>0.07443092788485837</v>
+        <v>0.0005496722341011987</v>
       </c>
       <c r="P4">
-        <v>0.07443092788485837</v>
+        <v>0.0007642704353434132</v>
       </c>
       <c r="Q4">
-        <v>8.241618267131008</v>
+        <v>0.003617828562</v>
       </c>
       <c r="R4">
-        <v>8.241618267131008</v>
+        <v>0.021706971372</v>
       </c>
       <c r="S4">
-        <v>0.07443092788485837</v>
+        <v>8.776134271966371E-06</v>
       </c>
       <c r="T4">
-        <v>0.07443092788485837</v>
+        <v>1.181054676025569E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,1301 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.0572405</v>
+      </c>
+      <c r="H5">
+        <v>0.114481</v>
+      </c>
+      <c r="I5">
+        <v>0.01596612258633864</v>
+      </c>
+      <c r="J5">
+        <v>0.01545336076613875</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P5">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q5">
+        <v>0.008075852263166665</v>
+      </c>
+      <c r="R5">
+        <v>0.04845511357899999</v>
+      </c>
+      <c r="S5">
+        <v>1.959041524702136E-05</v>
+      </c>
+      <c r="T5">
+        <v>2.636394432419394E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.0572405</v>
+      </c>
+      <c r="H6">
+        <v>0.114481</v>
+      </c>
+      <c r="I6">
+        <v>0.01596612258633864</v>
+      </c>
+      <c r="J6">
+        <v>0.01545336076613875</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>15.202168</v>
+      </c>
+      <c r="N6">
+        <v>45.606504</v>
+      </c>
+      <c r="O6">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P6">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q6">
+        <v>0.870179697404</v>
+      </c>
+      <c r="R6">
+        <v>5.221078184424</v>
+      </c>
+      <c r="S6">
+        <v>0.002110883292085793</v>
+      </c>
+      <c r="T6">
+        <v>0.002840736599285847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.0572405</v>
+      </c>
+      <c r="H7">
+        <v>0.114481</v>
+      </c>
+      <c r="I7">
+        <v>0.01596612258633864</v>
+      </c>
+      <c r="J7">
+        <v>0.01545336076613875</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N7">
+        <v>184.652237</v>
+      </c>
+      <c r="O7">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P7">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q7">
+        <v>5.28479318599925</v>
+      </c>
+      <c r="R7">
+        <v>21.139172743997</v>
+      </c>
+      <c r="S7">
+        <v>0.01281985970453576</v>
+      </c>
+      <c r="T7">
+        <v>0.01150161318626624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1688393333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.506518</v>
+      </c>
+      <c r="I8">
+        <v>0.04709444350408701</v>
+      </c>
+      <c r="J8">
+        <v>0.06837296484607114</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.533117</v>
+      </c>
+      <c r="N8">
+        <v>9.066234</v>
+      </c>
+      <c r="O8">
+        <v>0.0394235894695292</v>
+      </c>
+      <c r="P8">
+        <v>0.03654333378744622</v>
+      </c>
+      <c r="Q8">
+        <v>0.765368452202</v>
+      </c>
+      <c r="R8">
+        <v>4.592210713212</v>
+      </c>
+      <c r="S8">
+        <v>0.001856632007001062</v>
+      </c>
+      <c r="T8">
+        <v>0.002498576076407304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1688393333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.506518</v>
+      </c>
+      <c r="I9">
+        <v>0.04709444350408701</v>
+      </c>
+      <c r="J9">
+        <v>0.06837296484607114</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.719193666666667</v>
+      </c>
+      <c r="N9">
+        <v>8.157581</v>
+      </c>
+      <c r="O9">
+        <v>0.02364827000997559</v>
+      </c>
+      <c r="P9">
+        <v>0.03288081968556397</v>
+      </c>
+      <c r="Q9">
+        <v>0.4591068458842223</v>
+      </c>
+      <c r="R9">
+        <v>4.131961612958</v>
+      </c>
+      <c r="S9">
+        <v>0.001113702115954191</v>
+      </c>
+      <c r="T9">
+        <v>0.002248159128471069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1688393333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.506518</v>
+      </c>
+      <c r="I10">
+        <v>0.04709444350408701</v>
+      </c>
+      <c r="J10">
+        <v>0.06837296484607114</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.063204</v>
+      </c>
+      <c r="N10">
+        <v>0.189612</v>
+      </c>
+      <c r="O10">
+        <v>0.0005496722341011987</v>
+      </c>
+      <c r="P10">
+        <v>0.0007642704353434132</v>
+      </c>
+      <c r="Q10">
+        <v>0.010671321224</v>
+      </c>
+      <c r="R10">
+        <v>0.09604189101600001</v>
+      </c>
+      <c r="S10">
+        <v>2.588650797464419E-05</v>
+      </c>
+      <c r="T10">
+        <v>5.225543560862667E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1688393333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.506518</v>
+      </c>
+      <c r="I11">
+        <v>0.04709444350408701</v>
+      </c>
+      <c r="J11">
+        <v>0.06837296484607114</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P11">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q11">
+        <v>0.02382092246244444</v>
+      </c>
+      <c r="R11">
+        <v>0.214388302162</v>
+      </c>
+      <c r="S11">
+        <v>5.778483154462758E-05</v>
+      </c>
+      <c r="T11">
+        <v>0.0001166465383006968</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1688393333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.506518</v>
+      </c>
+      <c r="I12">
+        <v>0.04709444350408701</v>
+      </c>
+      <c r="J12">
+        <v>0.06837296484607114</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>15.202168</v>
+      </c>
+      <c r="N12">
+        <v>45.606504</v>
+      </c>
+      <c r="O12">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P12">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q12">
+        <v>2.566723910341334</v>
+      </c>
+      <c r="R12">
+        <v>23.100515193072</v>
+      </c>
+      <c r="S12">
+        <v>0.00622636293848302</v>
+      </c>
+      <c r="T12">
+        <v>0.01256876006321633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1688393333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.506518</v>
+      </c>
+      <c r="I13">
+        <v>0.04709444350408701</v>
+      </c>
+      <c r="J13">
+        <v>0.06837296484607114</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N13">
+        <v>184.652237</v>
+      </c>
+      <c r="O13">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P13">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q13">
+        <v>15.58828029679434</v>
+      </c>
+      <c r="R13">
+        <v>93.52968178076601</v>
+      </c>
+      <c r="S13">
+        <v>0.03781407510312947</v>
+      </c>
+      <c r="T13">
+        <v>0.0508885676040671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.04063262532702</v>
-      </c>
-      <c r="H5">
-        <v>1.04063262532702</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>91.942441171791</v>
-      </c>
-      <c r="N5">
-        <v>91.942441171791</v>
-      </c>
-      <c r="O5">
-        <v>0.8640809012928788</v>
-      </c>
-      <c r="P5">
-        <v>0.8640809012928788</v>
-      </c>
-      <c r="Q5">
-        <v>95.67830393557595</v>
-      </c>
-      <c r="R5">
-        <v>95.67830393557595</v>
-      </c>
-      <c r="S5">
-        <v>0.8640809012928788</v>
-      </c>
-      <c r="T5">
-        <v>0.8640809012928788</v>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.06907833333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.207235</v>
+      </c>
+      <c r="I14">
+        <v>0.01926805562599843</v>
+      </c>
+      <c r="J14">
+        <v>0.02797387530132306</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.533117</v>
+      </c>
+      <c r="N14">
+        <v>9.066234</v>
+      </c>
+      <c r="O14">
+        <v>0.0394235894695292</v>
+      </c>
+      <c r="P14">
+        <v>0.03654333378744622</v>
+      </c>
+      <c r="Q14">
+        <v>0.313140167165</v>
+      </c>
+      <c r="R14">
+        <v>1.87884100299</v>
+      </c>
+      <c r="S14">
+        <v>0.0007596159148754144</v>
+      </c>
+      <c r="T14">
+        <v>0.001022258662464646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.06907833333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.207235</v>
+      </c>
+      <c r="I15">
+        <v>0.01926805562599843</v>
+      </c>
+      <c r="J15">
+        <v>0.02797387530132306</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.719193666666667</v>
+      </c>
+      <c r="N15">
+        <v>8.157581</v>
+      </c>
+      <c r="O15">
+        <v>0.02364827000997559</v>
+      </c>
+      <c r="P15">
+        <v>0.03288081968556397</v>
+      </c>
+      <c r="Q15">
+        <v>0.1878373665038889</v>
+      </c>
+      <c r="R15">
+        <v>1.690536298535</v>
+      </c>
+      <c r="S15">
+        <v>0.00045565618201084</v>
+      </c>
+      <c r="T15">
+        <v>0.0009198039496892549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.06907833333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.207235</v>
+      </c>
+      <c r="I16">
+        <v>0.01926805562599843</v>
+      </c>
+      <c r="J16">
+        <v>0.02797387530132306</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.063204</v>
+      </c>
+      <c r="N16">
+        <v>0.189612</v>
+      </c>
+      <c r="O16">
+        <v>0.0005496722341011987</v>
+      </c>
+      <c r="P16">
+        <v>0.0007642704353434132</v>
+      </c>
+      <c r="Q16">
+        <v>0.00436602698</v>
+      </c>
+      <c r="R16">
+        <v>0.03929424282</v>
+      </c>
+      <c r="S16">
+        <v>1.059111518272873E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.137960585478453E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.06907833333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.207235</v>
+      </c>
+      <c r="I17">
+        <v>0.01926805562599843</v>
+      </c>
+      <c r="J17">
+        <v>0.02797387530132306</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P17">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q17">
+        <v>0.009746008762777777</v>
+      </c>
+      <c r="R17">
+        <v>0.08771407886499999</v>
+      </c>
+      <c r="S17">
+        <v>2.364188353651972E-05</v>
+      </c>
+      <c r="T17">
+        <v>4.772435602435628E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.06907833333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.207235</v>
+      </c>
+      <c r="I18">
+        <v>0.01926805562599843</v>
+      </c>
+      <c r="J18">
+        <v>0.02797387530132306</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>15.202168</v>
+      </c>
+      <c r="N18">
+        <v>45.606504</v>
+      </c>
+      <c r="O18">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P18">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q18">
+        <v>1.050140428493333</v>
+      </c>
+      <c r="R18">
+        <v>9.451263856440001</v>
+      </c>
+      <c r="S18">
+        <v>0.002547432319397393</v>
+      </c>
+      <c r="T18">
+        <v>0.005142338459246534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.06907833333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.207235</v>
+      </c>
+      <c r="I19">
+        <v>0.01926805562599843</v>
+      </c>
+      <c r="J19">
+        <v>0.02797387530132306</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N19">
+        <v>184.652237</v>
+      </c>
+      <c r="O19">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P19">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q19">
+        <v>6.377734389115834</v>
+      </c>
+      <c r="R19">
+        <v>38.26640633469501</v>
+      </c>
+      <c r="S19">
+        <v>0.01547111821099553</v>
+      </c>
+      <c r="T19">
+        <v>0.02082037026804348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.289964</v>
+      </c>
+      <c r="H20">
+        <v>6.579928</v>
+      </c>
+      <c r="I20">
+        <v>0.9176713782835759</v>
+      </c>
+      <c r="J20">
+        <v>0.8881997990864671</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.533117</v>
+      </c>
+      <c r="N20">
+        <v>9.066234</v>
+      </c>
+      <c r="O20">
+        <v>0.0394235894695292</v>
+      </c>
+      <c r="P20">
+        <v>0.03654333378744622</v>
+      </c>
+      <c r="Q20">
+        <v>14.913791737788</v>
+      </c>
+      <c r="R20">
+        <v>59.655166951152</v>
+      </c>
+      <c r="S20">
+        <v>0.03617789968538872</v>
+      </c>
+      <c r="T20">
+        <v>0.03245778172795944</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.289964</v>
+      </c>
+      <c r="H21">
+        <v>6.579928</v>
+      </c>
+      <c r="I21">
+        <v>0.9176713782835759</v>
+      </c>
+      <c r="J21">
+        <v>0.8881997990864671</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.719193666666667</v>
+      </c>
+      <c r="N21">
+        <v>8.157581</v>
+      </c>
+      <c r="O21">
+        <v>0.02364827000997559</v>
+      </c>
+      <c r="P21">
+        <v>0.03288081968556397</v>
+      </c>
+      <c r="Q21">
+        <v>8.946049272361334</v>
+      </c>
+      <c r="R21">
+        <v>53.676295634168</v>
+      </c>
+      <c r="S21">
+        <v>0.02170134053407645</v>
+      </c>
+      <c r="T21">
+        <v>0.02920473743851627</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.289964</v>
+      </c>
+      <c r="H22">
+        <v>6.579928</v>
+      </c>
+      <c r="I22">
+        <v>0.9176713782835759</v>
+      </c>
+      <c r="J22">
+        <v>0.8881997990864671</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.063204</v>
+      </c>
+      <c r="N22">
+        <v>0.189612</v>
+      </c>
+      <c r="O22">
+        <v>0.0005496722341011987</v>
+      </c>
+      <c r="P22">
+        <v>0.0007642704353434132</v>
+      </c>
+      <c r="Q22">
+        <v>0.207938884656</v>
+      </c>
+      <c r="R22">
+        <v>1.247633307936</v>
+      </c>
+      <c r="S22">
+        <v>0.0005044184766718594</v>
+      </c>
+      <c r="T22">
+        <v>0.0006788248471197463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.289964</v>
+      </c>
+      <c r="H23">
+        <v>6.579928</v>
+      </c>
+      <c r="I23">
+        <v>0.9176713782835759</v>
+      </c>
+      <c r="J23">
+        <v>0.8881997990864671</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P23">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q23">
+        <v>0.4641689575586666</v>
+      </c>
+      <c r="R23">
+        <v>2.785013745351999</v>
+      </c>
+      <c r="S23">
+        <v>0.001125981794494307</v>
+      </c>
+      <c r="T23">
+        <v>0.00151529821934823</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.289964</v>
+      </c>
+      <c r="H24">
+        <v>6.579928</v>
+      </c>
+      <c r="I24">
+        <v>0.9176713782835759</v>
+      </c>
+      <c r="J24">
+        <v>0.8881997990864671</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>15.202168</v>
+      </c>
+      <c r="N24">
+        <v>45.606504</v>
+      </c>
+      <c r="O24">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P24">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q24">
+        <v>50.014585441952</v>
+      </c>
+      <c r="R24">
+        <v>300.087512651712</v>
+      </c>
+      <c r="S24">
+        <v>0.1213254608042163</v>
+      </c>
+      <c r="T24">
+        <v>0.1632746245251677</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.289964</v>
+      </c>
+      <c r="H25">
+        <v>6.579928</v>
+      </c>
+      <c r="I25">
+        <v>0.9176713782835759</v>
+      </c>
+      <c r="J25">
+        <v>0.8881997990864671</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N25">
+        <v>184.652237</v>
+      </c>
+      <c r="O25">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P25">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q25">
+        <v>303.749606124734</v>
+      </c>
+      <c r="R25">
+        <v>1214.998424498936</v>
+      </c>
+      <c r="S25">
+        <v>0.7368362769887282</v>
+      </c>
+      <c r="T25">
+        <v>0.6610685323283556</v>
       </c>
     </row>
   </sheetData>
